--- a/biology/Médecine/Cancer_du_vagin/Cancer_du_vagin.xlsx
+++ b/biology/Médecine/Cancer_du_vagin/Cancer_du_vagin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vagin est une des parties internes de l’appareil génital féminin, situé entre la vulve et l’utérus. Les cancers primitifs du vagin représentent moins de 1 % des cancers gynécologiques et sont principalement des cancers de la femme adulte âgée, le pic d'incidence se situant entre 60 et 70 ans. Les facteurs de risque liés au cancer du vagin sont les mêmes que pour le cancer du col utérin : l’infection par le papillomavirus (HPV), l’infection par le VIH, le tabagisme, qui favorise la persistance de l’infection par HPV
 </t>
@@ -511,7 +523,9 @@
           <t>Circonstance de découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la médecine   Portail des femmes et du féminisme                    </t>
         </is>
